--- a/Instances/03_Lumpy_b2_fe25_en_rk50_ll0_l20_H010_c2.xlsx
+++ b/Instances/03_Lumpy_b2_fe25_en_rk50_ll0_l20_H010_c2.xlsx
@@ -544,7 +544,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -576,7 +576,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3766,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>505</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>1.6412</v>
@@ -3798,7 +3798,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>229</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>1.6648</v>
@@ -3830,7 +3830,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>185</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>1.69896</v>
@@ -3990,7 +3990,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>505</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>0.44</v>
@@ -4022,7 +4022,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1197</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>0.24</v>
@@ -4054,7 +4054,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1197</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>0.16</v>
@@ -4086,7 +4086,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>693</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>0.44</v>
@@ -4150,7 +4150,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>505</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>0.9600000000000001</v>
@@ -4182,7 +4182,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>505</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>0.6012</v>
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>413</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>0.6008</v>
@@ -4246,7 +4246,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>693</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
         <v>0.9400000000000001</v>
@@ -4281,7 +4281,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4347,16 +4347,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -4403,16 +4403,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -4459,16 +4459,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -4515,16 +4515,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -4571,54 +4571,334 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
         <v>70</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>126</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>57</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E7" t="n">
         <v>46</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>70</v>
+      </c>
+      <c r="C8" t="n">
+        <v>126</v>
+      </c>
+      <c r="D8" t="n">
+        <v>57</v>
+      </c>
+      <c r="E8" t="n">
+        <v>46</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>70</v>
+      </c>
+      <c r="C9" t="n">
+        <v>126</v>
+      </c>
+      <c r="D9" t="n">
+        <v>57</v>
+      </c>
+      <c r="E9" t="n">
+        <v>46</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>70</v>
+      </c>
+      <c r="C10" t="n">
+        <v>126</v>
+      </c>
+      <c r="D10" t="n">
+        <v>57</v>
+      </c>
+      <c r="E10" t="n">
+        <v>46</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>70</v>
+      </c>
+      <c r="C11" t="n">
+        <v>126</v>
+      </c>
+      <c r="D11" t="n">
+        <v>57</v>
+      </c>
+      <c r="E11" t="n">
+        <v>46</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4633,7 +4913,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4699,16 +4979,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>132.3</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>51.3</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -4755,16 +5035,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>132.3</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>51.3</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -4811,16 +5091,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>132.3</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>51.3</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -4867,16 +5147,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>132.3</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>51.3</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -4923,54 +5203,334 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
         <v>35</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>132.3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>51.3</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E7" t="n">
         <v>45</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>35</v>
+      </c>
+      <c r="C8" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="E8" t="n">
+        <v>45</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>35</v>
+      </c>
+      <c r="C9" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="E9" t="n">
+        <v>45</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>35</v>
+      </c>
+      <c r="C10" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="E10" t="n">
+        <v>45</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>35</v>
+      </c>
+      <c r="C11" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="E11" t="n">
+        <v>45</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Instances/03_Lumpy_b2_fe25_en_rk50_ll0_l20_H010_c2.xlsx
+++ b/Instances/03_Lumpy_b2_fe25_en_rk50_ll0_l20_H010_c2.xlsx
@@ -3766,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>1.6412</v>
@@ -3798,7 +3798,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>1.6648</v>
@@ -3830,7 +3830,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>1.69896</v>
@@ -3990,7 +3990,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0.44</v>
@@ -4022,7 +4022,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0.24</v>
@@ -4054,7 +4054,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0.16</v>
@@ -4086,7 +4086,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0.44</v>
@@ -4150,7 +4150,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0.9600000000000001</v>
@@ -4182,7 +4182,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0.6012</v>
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0.6008</v>
@@ -4246,7 +4246,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0.9400000000000001</v>
